--- a/manual_matches.xlsx
+++ b/manual_matches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10728"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\GitHub\camd-eia-crosswalk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/udayvaradarajan/My Drive/GitHub/camd-eia-crosswalk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5701881-2C0F-4BB0-B5D9-1C6435859501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFE87B3-D349-F748-AB7B-01A53FCC8A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="840" windowWidth="40260" windowHeight="29920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unit_manual_matches" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">unit_manual_excluded!$A$1:$G$147</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unit_manual_matches!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="389">
   <si>
     <t>CAMD_PLANT_ID</t>
   </si>
@@ -1036,6 +1049,165 @@
   </si>
   <si>
     <t>Matched based on total net generation</t>
+  </si>
+  <si>
+    <t>UGT013</t>
+  </si>
+  <si>
+    <t>UGT014</t>
+  </si>
+  <si>
+    <t>VB01</t>
+  </si>
+  <si>
+    <t>BFB-1</t>
+  </si>
+  <si>
+    <t>CTEU1</t>
+  </si>
+  <si>
+    <t>214JA</t>
+  </si>
+  <si>
+    <t>214JB</t>
+  </si>
+  <si>
+    <t>GT501A</t>
+  </si>
+  <si>
+    <t>GT501B</t>
+  </si>
+  <si>
+    <t>1S</t>
+  </si>
+  <si>
+    <t>SHER</t>
+  </si>
+  <si>
+    <t>STG4</t>
+  </si>
+  <si>
+    <t>GTG</t>
+  </si>
+  <si>
+    <t>5STA</t>
+  </si>
+  <si>
+    <t>5STB</t>
+  </si>
+  <si>
+    <t>7S</t>
+  </si>
+  <si>
+    <t>New EIA Plant ID (62115) for new CCGT units on plant site, matched based on generator ID</t>
+  </si>
+  <si>
+    <t>New EIA Plant ID (62116) for new CCGT units on plant site, matched based on generator ID</t>
+  </si>
+  <si>
+    <t>CAMD_GENERATOR_ID fuzzy matches EIA_GENERATOR_ID, combined cycle heat recovery boiler</t>
+  </si>
+  <si>
+    <t>One of two retired CAs of still operational combined-cycle unit CC1</t>
+  </si>
+  <si>
+    <t>CA for combined-cycle unit CC1</t>
+  </si>
+  <si>
+    <t>CA for combined-cycle unit CC2</t>
+  </si>
+  <si>
+    <t>Match on location, capacity, prime mover, and fuel</t>
+  </si>
+  <si>
+    <t>SEHR</t>
+  </si>
+  <si>
+    <t>Transposition in EIA_GENERATOR_ID</t>
+  </si>
+  <si>
+    <t>VG02</t>
+  </si>
+  <si>
+    <t>VG03</t>
+  </si>
+  <si>
+    <t>EIA_GENERATOR_ID appear to use a slightly different prefix and are one higher - both units appear to be nearly identical</t>
+  </si>
+  <si>
+    <t>VB02</t>
+  </si>
+  <si>
+    <t>CAMD_GENERATOR_ID differs from EIA_GENERATOR_ID for the second CA for this 2 CT, 2CA combined cycle unit</t>
+  </si>
+  <si>
+    <t>CAMD_GENERATOR_ID is sequential for CTGs, but EIA_GENERATOR_ID skips 5</t>
+  </si>
+  <si>
+    <t>CAMD_PLANT_ID is for Riverside Energy Center, but this is the West Riverside Energy Center CCGT in EIA</t>
+  </si>
+  <si>
+    <t>Matched on fuel, capacity, prime mover</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Single EIA combustion turbine with the same operating date, location, and approximate total capacity as two CAMD units</t>
+  </si>
+  <si>
+    <t>CA for combined-cycle unit 700 in EIA</t>
+  </si>
+  <si>
+    <t>First CT for combined-cycle unit 700 in EIA</t>
+  </si>
+  <si>
+    <t>Second CT for combined-cycle unit 700 in EIA</t>
+  </si>
+  <si>
+    <t>CA for combined-cycle unit CCG1 in EIA</t>
+  </si>
+  <si>
+    <t>CT for combined-cycle unit CCG1 in EIA</t>
+  </si>
+  <si>
+    <t>Single EIA CA for three CTs, but given three different CA generator IDs in CAMD</t>
+  </si>
+  <si>
+    <t>ST3</t>
+  </si>
+  <si>
+    <t>U004</t>
+  </si>
+  <si>
+    <t>U005</t>
+  </si>
+  <si>
+    <t>U006</t>
+  </si>
+  <si>
+    <t>CAMD_UNIT_IDs match to the EIA_GENERATOR_IDs for the CAs, but the EIA_GENERATOR_IDs for the CTs are sequentially labeled with similar unit IDs</t>
+  </si>
+  <si>
+    <t>SMECO</t>
+  </si>
+  <si>
+    <t>The retired steam units at Chalk Point are listed under a different EIA_PLANT_ID</t>
+  </si>
+  <si>
+    <t>This is apparently NRG Chalk Point CT in EIA</t>
+  </si>
+  <si>
+    <t>The retired steam units at Dickerson are listed under a different EIA_PLANT_ID</t>
+  </si>
+  <si>
+    <t>GTG1</t>
+  </si>
+  <si>
+    <t>GTG2</t>
+  </si>
+  <si>
+    <t>Single EIA generator listed for plant</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1722,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1572,15 +1744,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1601,10 +1764,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1962,25 +2125,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="157.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="8" customWidth="1"/>
+    <col min="2" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="5" customWidth="1"/>
+    <col min="7" max="7" width="157.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2003,1670 +2165,1686 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>116</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5">
+        <v>116</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>116</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
+        <v>116</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>116</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
+        <v>116</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>116</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>116</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>116</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <v>116</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>302</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="6">
+        <v>59002</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>302</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="6">
+        <v>59002</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>302</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="6">
+        <v>59002</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>302</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="6">
+        <v>59002</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>302</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="6">
+        <v>59002</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>315</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5">
+        <v>62115</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>315</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D13" s="5">
+        <v>62115</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>315</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5">
+        <v>62115</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>315</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D15" s="5">
+        <v>62115</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>335</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5">
+        <v>62116</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>335</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D17" s="5">
+        <v>62116</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>335</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="5">
+        <v>62116</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>335</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19" s="5">
+        <v>62116</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>389</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5">
+        <v>389</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>544</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="5">
+        <v>57070</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>544</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="5">
+        <v>57070</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>544</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="5">
+        <v>57070</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>544</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="5">
+        <v>57070</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>568</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5">
+        <v>568</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
+        <v>501</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>568</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5">
+        <v>568</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
+        <v>502</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>612</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D27" s="5">
         <v>612</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>612</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D28" s="5">
         <v>612</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>676</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5">
+        <v>676</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>1363</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1363</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G30" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>1363</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1363</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>1363</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1363</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>1363</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1363</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
         <v>1393</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B34" s="5">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C34" s="5">
         <v>4</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D34" s="5">
         <v>1393</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E34" s="5">
         <v>4</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F34" s="5">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G34" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
         <v>1393</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B35" s="5">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C35" s="5">
         <v>6</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D35" s="5">
         <v>1393</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E35" s="5">
         <v>6</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F35" s="5">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G35" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>1393</v>
+      </c>
+      <c r="B36" s="5">
+        <v>3</v>
+      </c>
+      <c r="C36" s="5">
+        <v>3</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1393</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
         <v>1403</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B37" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C37" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D37" s="5">
         <v>1403</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E37" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>1570</v>
+      </c>
+      <c r="B38" s="5">
+        <v>11</v>
+      </c>
+      <c r="C38" s="5">
+        <v>4</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1570</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>1570</v>
+      </c>
+      <c r="B39" s="5">
+        <v>9</v>
+      </c>
+      <c r="C39" s="5">
+        <v>3</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1570</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>1595</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5">
+        <v>1595</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>1595</v>
+      </c>
+      <c r="B41" s="5">
+        <v>4</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1595</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>1599</v>
+      </c>
+      <c r="B42" s="5">
+        <v>3</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5">
+        <v>1599</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5">
+        <v>3</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>1702</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B43" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C43" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D43" s="5">
         <v>1702</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E43" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F43" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
         <v>1702</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B44" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C44" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D44" s="5">
         <v>1702</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E44" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>1702</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B45" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C45" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D45" s="5">
         <v>1702</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E45" s="5">
         <v>2</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G45" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
         <v>1702</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B46" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C46" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D46" s="5">
         <v>1702</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E46" s="5">
         <v>2</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>2861</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="8">
-        <v>2861</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>4072</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="8">
-        <v>4072</v>
-      </c>
-      <c r="F12" s="4">
-        <v>31</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>4937</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="8">
-        <v>4937</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>4937</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="8">
-        <v>4937</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>3612</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="9">
-        <v>7512</v>
-      </c>
-      <c r="F15" s="7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>1732</v>
+      </c>
+      <c r="B47" s="5">
+        <v>10</v>
+      </c>
+      <c r="C47" s="5">
+        <v>6</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1732</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>1732</v>
+      </c>
+      <c r="B48" s="5">
+        <v>11</v>
+      </c>
+      <c r="C48" s="5">
+        <v>6</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1732</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>1732</v>
+      </c>
+      <c r="B49" s="5">
+        <v>12</v>
+      </c>
+      <c r="C49" s="5">
+        <v>6</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1732</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>1732</v>
+      </c>
+      <c r="B50" s="5">
+        <v>9</v>
+      </c>
+      <c r="C50" s="5">
+        <v>6</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1732</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>2070</v>
+      </c>
+      <c r="B51" s="5">
         <v>1</v>
       </c>
-      <c r="G15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>3612</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="9">
-        <v>7512</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5">
+        <v>2070</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>2070</v>
+      </c>
+      <c r="B52" s="5">
+        <v>2</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5">
+        <v>2070</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5">
+        <v>2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>2070</v>
+      </c>
+      <c r="B53" s="5">
+        <v>6</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2070</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>2070</v>
+      </c>
+      <c r="B54" s="5">
+        <v>7</v>
+      </c>
+      <c r="C54" s="5">
+        <v>2</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2070</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>2398</v>
+      </c>
+      <c r="B55" s="5">
+        <v>1101</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2398</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5">
+        <v>1501</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <v>2398</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1201</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2398</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5">
+        <v>1501</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>2398</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1301</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
+        <v>2398</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5">
+        <v>1501</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
+        <v>2398</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1401</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5">
+        <v>2398</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5">
+        <v>1501</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
+        <v>2500</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>2527</v>
+      </c>
+      <c r="B60" s="5">
+        <v>5</v>
+      </c>
+      <c r="C60" s="5">
         <v>3</v>
       </c>
-      <c r="G16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>3612</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="9">
-        <v>7512</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="D60" s="5">
+        <v>2527</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5">
         <v>3</v>
       </c>
-      <c r="G17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>3612</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="9">
-        <v>7512</v>
-      </c>
-      <c r="F18" s="7">
-        <v>2</v>
-      </c>
-      <c r="G18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>2709</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="8">
-        <v>7538</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>2709</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="8">
-        <v>7538</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>2709</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="8">
-        <v>7538</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>2709</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="8">
-        <v>7538</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>2709</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="8">
-        <v>7538</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>7848</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8">
-        <v>7848</v>
-      </c>
-      <c r="F24" s="5">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>7848</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="8">
-        <v>7848</v>
-      </c>
-      <c r="F25" s="5">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>7848</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="G60" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
+        <v>2527</v>
+      </c>
+      <c r="B61" s="5">
+        <v>4</v>
+      </c>
+      <c r="C61" s="5">
         <v>3</v>
       </c>
-      <c r="C26" s="1">
-        <v>3</v>
-      </c>
-      <c r="D26" s="8">
-        <v>7848</v>
-      </c>
-      <c r="F26" s="5">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>7903</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="8">
-        <v>7903</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>7903</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="8">
-        <v>7903</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>7903</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="8">
-        <v>7903</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>7903</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="8">
-        <v>7903</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>7350</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="8">
-        <v>7931</v>
-      </c>
-      <c r="F31" s="5">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>7350</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="8">
-        <v>7931</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="5">
-        <v>2</v>
-      </c>
-      <c r="G32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>56032</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="8">
-        <v>56032</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>302</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="11">
-        <v>59002</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>302</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="11">
-        <v>59002</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
-        <v>302</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="11">
-        <v>59002</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>302</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="11">
-        <v>59002</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>302</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="11">
-        <v>59002</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G38" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>59773</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="8">
-        <v>59773</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <v>59773</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="8">
-        <v>59773</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
-        <v>59773</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="8">
-        <v>59773</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <v>59773</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="8">
-        <v>59773</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>55306</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="8">
-        <v>60768</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>55306</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="8">
-        <v>60768</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>55306</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="8">
-        <v>60768</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
-        <v>55306</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="8">
-        <v>60768</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
-        <v>3006</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="8">
-        <v>55655</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
-        <v>3006</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" s="8">
-        <v>55655</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
-        <v>544</v>
-      </c>
-      <c r="B49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="8">
-        <v>57070</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
-        <v>544</v>
-      </c>
-      <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="8">
-        <v>57070</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
-        <v>544</v>
-      </c>
-      <c r="B51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="8">
-        <v>57070</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>544</v>
-      </c>
-      <c r="B52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="8">
-        <v>57070</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
-        <v>3176</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="8">
-        <v>3176</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
-        <v>3176</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" s="8">
-        <v>3176</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
-        <v>3176</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="8">
-        <v>3176</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
-        <v>3176</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="8">
-        <v>3176</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
-        <v>52151</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D57" s="8">
-        <v>52151</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
-        <v>52151</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D58" s="8">
-        <v>52151</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
-        <v>52151</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D59" s="8">
-        <v>52151</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
-        <v>52151</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D60" s="8">
-        <v>52151</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
-        <v>389</v>
-      </c>
-      <c r="B61" s="1">
-        <v>3</v>
-      </c>
-      <c r="D61" s="8">
-        <v>389</v>
-      </c>
+      <c r="D61" s="5">
+        <v>2527</v>
+      </c>
+      <c r="E61" s="5"/>
       <c r="F61" s="5">
         <v>3</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>2594</v>
+      </c>
+      <c r="B62" s="5">
+        <v>3</v>
+      </c>
+      <c r="C62" s="5">
+        <v>3</v>
+      </c>
+      <c r="D62" s="5">
+        <v>2594</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5">
+        <v>3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>2706</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5">
+        <v>2706</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
-        <v>1363</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D62" s="8">
-        <v>1363</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G62" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>2706</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5">
+        <v>2706</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
-        <v>1363</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D63" s="8">
-        <v>1363</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G63" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
-        <v>1393</v>
-      </c>
-      <c r="B64" s="1">
-        <v>3</v>
-      </c>
-      <c r="C64" s="1">
-        <v>3</v>
-      </c>
-      <c r="D64" s="8">
-        <v>1393</v>
-      </c>
-      <c r="F64" s="5">
-        <v>3</v>
-      </c>
-      <c r="G64" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
-        <v>1570</v>
-      </c>
-      <c r="B65" s="1">
-        <v>11</v>
-      </c>
-      <c r="C65" s="1">
-        <v>4</v>
-      </c>
-      <c r="D65" s="8">
-        <v>1570</v>
-      </c>
-      <c r="F65" s="5">
-        <v>11</v>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
+        <v>2709</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="5">
+        <v>7538</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="G65" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
-        <v>1570</v>
-      </c>
-      <c r="B66" s="1">
-        <v>9</v>
-      </c>
-      <c r="C66" s="1">
-        <v>3</v>
-      </c>
-      <c r="D66" s="8">
-        <v>1570</v>
-      </c>
-      <c r="F66" s="5">
-        <v>9</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
+        <v>2709</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="5">
+        <v>7538</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="G66" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
-        <v>1595</v>
-      </c>
-      <c r="B67" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
+        <v>2709</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="5">
+        <v>7538</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <v>2709</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="5">
+        <v>7538</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
+        <v>2709</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" s="5">
+        <v>7538</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
+        <v>2847</v>
+      </c>
+      <c r="B70" s="5">
         <v>1</v>
       </c>
-      <c r="D67" s="8">
-        <v>1595</v>
-      </c>
-      <c r="F67" s="5">
-        <v>1</v>
-      </c>
-      <c r="G67" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
-        <v>1732</v>
-      </c>
-      <c r="B68" s="1">
-        <v>10</v>
-      </c>
-      <c r="C68" s="1">
-        <v>6</v>
-      </c>
-      <c r="D68" s="8">
-        <v>1732</v>
-      </c>
-      <c r="F68" s="5">
-        <v>6</v>
-      </c>
-      <c r="G68" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
-        <v>1732</v>
-      </c>
-      <c r="B69" s="1">
-        <v>11</v>
-      </c>
-      <c r="C69" s="1">
-        <v>6</v>
-      </c>
-      <c r="D69" s="8">
-        <v>1732</v>
-      </c>
-      <c r="F69" s="5">
-        <v>6</v>
-      </c>
-      <c r="G69" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
-        <v>1732</v>
-      </c>
-      <c r="B70" s="1">
-        <v>12</v>
-      </c>
-      <c r="C70" s="1">
-        <v>6</v>
-      </c>
-      <c r="D70" s="8">
-        <v>1732</v>
-      </c>
-      <c r="F70" s="5">
-        <v>6</v>
+      <c r="C70" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="5">
+        <v>2847</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="G70" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
-        <v>1732</v>
-      </c>
-      <c r="B71" s="1">
-        <v>9</v>
-      </c>
-      <c r="C71" s="1">
-        <v>6</v>
-      </c>
-      <c r="D71" s="8">
-        <v>1732</v>
-      </c>
-      <c r="F71" s="5">
-        <v>6</v>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
+        <v>2847</v>
+      </c>
+      <c r="B71" s="5">
+        <v>2</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D71" s="5">
+        <v>2847</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="G71" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="8">
-        <v>2070</v>
-      </c>
-      <c r="B72" s="1">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
+        <v>2847</v>
+      </c>
+      <c r="B72" s="5">
+        <v>3</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D72" s="5">
+        <v>2847</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G72" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
+        <v>2861</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" s="5">
+        <v>2861</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G73" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="7">
+        <v>3006</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="5">
+        <v>55655</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="7">
+        <v>3006</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="5">
+        <v>55655</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="5">
+        <v>3176</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="5">
+        <v>3176</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
+        <v>3176</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" s="5">
+        <v>3176</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
+        <v>3176</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="5">
+        <v>3176</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
+        <v>3176</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" s="5">
+        <v>3176</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="5">
+        <v>3176</v>
+      </c>
+      <c r="B80" s="5">
+        <v>6</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5">
+        <v>3176</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5">
+        <v>6</v>
+      </c>
+      <c r="G80" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="5">
+        <v>3443</v>
+      </c>
+      <c r="B81" s="5">
+        <v>6</v>
+      </c>
+      <c r="C81" s="5">
+        <v>4</v>
+      </c>
+      <c r="D81" s="5">
+        <v>3443</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5">
+        <v>4</v>
+      </c>
+      <c r="G81" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
+        <v>3466</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C82" s="5">
         <v>1</v>
       </c>
-      <c r="D72" s="8">
-        <v>2070</v>
-      </c>
-      <c r="F72" s="5">
-        <v>1</v>
-      </c>
-      <c r="G72" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
-        <v>2070</v>
-      </c>
-      <c r="B73" s="1">
-        <v>2</v>
-      </c>
-      <c r="D73" s="8">
-        <v>2070</v>
-      </c>
-      <c r="F73" s="5">
-        <v>2</v>
-      </c>
-      <c r="G73" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
-        <v>2398</v>
-      </c>
-      <c r="B74" s="1">
-        <v>1101</v>
-      </c>
-      <c r="C74" s="1">
-        <v>1</v>
-      </c>
-      <c r="D74" s="8">
-        <v>2398</v>
-      </c>
-      <c r="F74" s="5">
-        <v>1101</v>
-      </c>
-      <c r="G74" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
-        <v>2398</v>
-      </c>
-      <c r="B75" s="1">
-        <v>1201</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="D75" s="8">
-        <v>2398</v>
-      </c>
-      <c r="F75" s="5">
-        <v>1201</v>
-      </c>
-      <c r="G75" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="8">
-        <v>2398</v>
-      </c>
-      <c r="B76" s="1">
-        <v>1301</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="8">
-        <v>2398</v>
-      </c>
-      <c r="F76" s="5">
-        <v>1301</v>
-      </c>
-      <c r="G76" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="8">
-        <v>2398</v>
-      </c>
-      <c r="B77" s="1">
-        <v>1401</v>
-      </c>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
-      <c r="D77" s="8">
-        <v>2398</v>
-      </c>
-      <c r="F77" s="5">
-        <v>1401</v>
-      </c>
-      <c r="G77" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
-        <v>2500</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D78" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G78" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="8">
-        <v>2527</v>
-      </c>
-      <c r="B79" s="1">
-        <v>5</v>
-      </c>
-      <c r="C79" s="1">
-        <v>3</v>
-      </c>
-      <c r="D79" s="8">
-        <v>2527</v>
-      </c>
-      <c r="F79" s="5">
-        <v>3</v>
-      </c>
-      <c r="G79" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="8">
-        <v>2594</v>
-      </c>
-      <c r="B80" s="1">
-        <v>3</v>
-      </c>
-      <c r="C80" s="1">
-        <v>3</v>
-      </c>
-      <c r="D80" s="8">
-        <v>2594</v>
-      </c>
-      <c r="F80" s="5">
-        <v>3</v>
-      </c>
-      <c r="G80" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="8">
-        <v>3176</v>
-      </c>
-      <c r="B81" s="1">
-        <v>6</v>
-      </c>
-      <c r="D81" s="8">
-        <v>3176</v>
-      </c>
-      <c r="F81" s="5">
-        <v>6</v>
-      </c>
-      <c r="G81" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="8">
+      <c r="D82" s="5">
         <v>3466</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
-      <c r="D82" s="8">
-        <v>3466</v>
-      </c>
+      <c r="E82" s="5"/>
       <c r="F82" s="5">
         <v>1</v>
       </c>
@@ -3674,19 +3852,20 @@
         <v>285</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="8">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="5">
         <v>3466</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="5">
         <v>2</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="5">
         <v>3466</v>
       </c>
+      <c r="E83" s="5"/>
       <c r="F83" s="5">
         <v>2</v>
       </c>
@@ -3694,19 +3873,20 @@
         <v>285</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="8">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
         <v>3466</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="5">
         <v>3</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="5">
         <v>3466</v>
       </c>
+      <c r="E84" s="5"/>
       <c r="F84" s="5">
         <v>3</v>
       </c>
@@ -3714,19 +3894,20 @@
         <v>285</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="8">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
         <v>3466</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="5">
         <v>4</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="5">
         <v>3466</v>
       </c>
+      <c r="E85" s="5"/>
       <c r="F85" s="5">
         <v>4</v>
       </c>
@@ -3734,1160 +3915,3022 @@
         <v>285</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="8">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="7">
+        <v>3612</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D86" s="7">
+        <v>7512</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="7">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="7">
+        <v>3612</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87" s="7">
+        <v>7512</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="7">
+        <v>3</v>
+      </c>
+      <c r="G87" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="7">
+        <v>3612</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" s="7">
+        <v>7512</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F88" s="7">
+        <v>3</v>
+      </c>
+      <c r="G88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="7">
+        <v>3612</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" s="7">
+        <v>7512</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="7">
+        <v>2</v>
+      </c>
+      <c r="G89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="5">
         <v>3627</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B90" s="5">
         <v>3</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C90" s="5">
         <v>3</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D90" s="5">
         <v>3627</v>
       </c>
-      <c r="F86" s="5">
+      <c r="E90" s="5"/>
+      <c r="F90" s="5">
         <v>3</v>
-      </c>
-      <c r="G86" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="8">
-        <v>7063</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1</v>
-      </c>
-      <c r="D87" s="8">
-        <v>7063</v>
-      </c>
-      <c r="F87" s="5">
-        <v>1</v>
-      </c>
-      <c r="G87" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="8">
-        <v>10803</v>
-      </c>
-      <c r="B88" s="1">
-        <v>1</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D88" s="8">
-        <v>10803</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G88" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="8">
-        <v>10803</v>
-      </c>
-      <c r="B89" s="1">
-        <v>2</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D89" s="8">
-        <v>10803</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G89" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="8">
-        <v>52130</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D90" s="8">
-        <v>52130</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="G90" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="8">
-        <v>52130</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D91" s="8">
-        <v>52130</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="G91" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="7">
+        <v>4072</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" s="5">
+        <v>4072</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="4">
+        <v>31</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
+        <v>4937</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D92" s="5">
+        <v>4937</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G92" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
+        <v>4937</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D93" s="5">
+        <v>4937</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G93" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
+        <v>7063</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C94" s="5">
+        <v>1</v>
+      </c>
+      <c r="D94" s="5">
+        <v>7063</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="8">
-        <v>52130</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D92" s="8">
-        <v>52130</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="G92" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="8">
-        <v>55518</v>
-      </c>
-      <c r="B93" s="1" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="5">
+        <v>7146</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D95" s="5">
+        <v>2518</v>
+      </c>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G95" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
+        <v>7146</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D96" s="5">
+        <v>2518</v>
+      </c>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G96" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="5">
+        <v>7277</v>
+      </c>
+      <c r="B97" s="5">
+        <v>17</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5">
+        <v>7277</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5">
+        <v>17</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
+        <v>7277</v>
+      </c>
+      <c r="B98" s="5">
+        <v>17</v>
+      </c>
+      <c r="C98" s="5">
+        <v>17</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5">
+        <v>17</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="5">
+        <v>7288</v>
+      </c>
+      <c r="B99" s="5">
+        <v>1</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D99" s="5">
+        <v>7288</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="G99" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="5">
+        <v>7350</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D93" s="8">
-        <v>55518</v>
-      </c>
-      <c r="F93" s="5" t="s">
+      <c r="C100" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="5">
+        <v>7931</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="5">
+        <v>7350</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G93" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="8">
-        <v>55518</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D94" s="8">
-        <v>55518</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="8">
-        <v>55524</v>
-      </c>
-      <c r="B95" s="1">
-        <v>5</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D95" s="8">
-        <v>55524</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G95" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="8">
-        <v>55524</v>
-      </c>
-      <c r="B96" s="1">
-        <v>5</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D96" s="8">
-        <v>55524</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="G96" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="8">
-        <v>55524</v>
-      </c>
-      <c r="B97" s="1">
-        <v>6</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D97" s="8">
-        <v>55524</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="G97" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="8">
-        <v>55524</v>
-      </c>
-      <c r="B98" s="1">
-        <v>6</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D98" s="8">
-        <v>55524</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="G98" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="8">
-        <v>56963</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D99" s="8">
-        <v>56963</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G99" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="8">
-        <v>56963</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D100" s="8">
-        <v>56963</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="G100" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="8">
-        <v>57842</v>
-      </c>
-      <c r="B101" s="1">
+      <c r="C101" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101" s="5">
+        <v>7931</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F101" s="5">
+        <v>2</v>
+      </c>
+      <c r="G101" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="5">
+        <v>7848</v>
+      </c>
+      <c r="B102" s="5">
         <v>1</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D101" s="8">
-        <v>57842</v>
-      </c>
-      <c r="F101" s="5">
+      <c r="C102" s="5">
         <v>1</v>
       </c>
-      <c r="G101" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="8">
-        <v>60345</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D102" s="8">
-        <v>60345</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>30</v>
+      <c r="D102" s="5">
+        <v>7848</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5">
+        <v>11</v>
       </c>
       <c r="G102" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="8">
-        <v>60345</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D103" s="8">
-        <v>60345</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>304</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="5">
+        <v>7848</v>
+      </c>
+      <c r="B103" s="5">
+        <v>2</v>
+      </c>
+      <c r="C103" s="5">
+        <v>2</v>
+      </c>
+      <c r="D103" s="5">
+        <v>7848</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5">
+        <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="8">
-        <v>60345</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D104" s="8">
-        <v>60345</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="5">
+        <v>7848</v>
+      </c>
+      <c r="B104" s="5">
+        <v>3</v>
+      </c>
+      <c r="C104" s="5">
+        <v>3</v>
+      </c>
+      <c r="D104" s="5">
+        <v>7848</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5">
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="8">
-        <v>60345</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D105" s="8">
-        <v>60345</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
+        <v>7903</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105" s="5">
+        <v>7903</v>
+      </c>
+      <c r="E105" s="5"/>
       <c r="F105" s="5" t="s">
-        <v>304</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="8">
-        <v>60345</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D106" s="8">
-        <v>60345</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="5">
+        <v>7903</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106" s="5">
+        <v>7903</v>
+      </c>
+      <c r="E106" s="5"/>
       <c r="F106" s="5" t="s">
-        <v>307</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="8">
-        <v>60345</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D107" s="8">
-        <v>60345</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="5">
+        <v>7903</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D107" s="5">
+        <v>7903</v>
+      </c>
+      <c r="E107" s="5"/>
       <c r="F107" s="5" t="s">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="G107" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="8">
-        <v>50615</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D108" s="8">
-        <v>50615</v>
-      </c>
-      <c r="F108" t="s">
-        <v>309</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="5">
+        <v>7903</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D108" s="5">
+        <v>7903</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="G108" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="8">
-        <v>50615</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D109" s="8">
-        <v>50615</v>
-      </c>
-      <c r="F109" t="s">
-        <v>309</v>
-      </c>
-      <c r="G109" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="8">
-        <v>50615</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D110" s="8">
-        <v>50615</v>
-      </c>
-      <c r="F110" t="s">
-        <v>309</v>
-      </c>
-      <c r="G110" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="8">
-        <v>3443</v>
-      </c>
-      <c r="B111" s="1">
-        <v>6</v>
-      </c>
-      <c r="C111" s="1">
-        <v>4</v>
-      </c>
-      <c r="D111" s="8">
-        <v>3443</v>
-      </c>
-      <c r="F111" s="5">
-        <v>4</v>
-      </c>
-      <c r="G111" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="8">
-        <v>2527</v>
-      </c>
-      <c r="B112" s="1">
-        <v>4</v>
-      </c>
-      <c r="C112" s="1">
-        <v>3</v>
-      </c>
-      <c r="D112" s="8">
-        <v>2527</v>
-      </c>
-      <c r="F112" s="5">
-        <v>3</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="5">
+        <v>7909</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D109" s="5">
+        <v>7909</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="5">
+        <v>7909</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D110" s="5">
+        <v>7909</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
+        <v>10294</v>
+      </c>
+      <c r="B111" s="5">
+        <v>2</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
+        <v>10803</v>
+      </c>
+      <c r="B112" s="5">
+        <v>1</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112" s="5">
+        <v>10803</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="G112" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="8">
-        <v>116</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D113" s="1">
-        <v>116</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="G113" s="1" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="5">
+        <v>10803</v>
+      </c>
+      <c r="B113" s="5">
+        <v>2</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D113" s="5">
+        <v>10803</v>
+      </c>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G113" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="5">
+        <v>50561</v>
+      </c>
+      <c r="B114" s="5">
+        <v>1</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D114" s="5">
+        <v>50561</v>
+      </c>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G114" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="5">
+        <v>50561</v>
+      </c>
+      <c r="B115" s="5">
+        <v>1</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D115" s="5">
+        <v>50561</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G115" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="5">
+        <v>50561</v>
+      </c>
+      <c r="B116" s="5">
+        <v>1</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D116" s="5">
+        <v>50561</v>
+      </c>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G116" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="5">
+        <v>50561</v>
+      </c>
+      <c r="B117" s="5">
+        <v>2</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D117" s="5">
+        <v>50561</v>
+      </c>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G117" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="5">
+        <v>50561</v>
+      </c>
+      <c r="B118" s="5">
+        <v>2</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D118" s="5">
+        <v>50561</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G118" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="5">
+        <v>50561</v>
+      </c>
+      <c r="B119" s="5">
+        <v>2</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D119" s="5">
+        <v>50561</v>
+      </c>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G119" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="5">
+        <v>50615</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D120" s="5">
+        <v>50615</v>
+      </c>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G120" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="5">
+        <v>50615</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D121" s="5">
+        <v>50615</v>
+      </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G121" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="5">
+        <v>50615</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D122" s="5">
+        <v>50615</v>
+      </c>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G122" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="5">
+        <v>52130</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D123" s="5">
+        <v>52130</v>
+      </c>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G123" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="5">
+        <v>52130</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D124" s="5">
+        <v>52130</v>
+      </c>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G124" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="5">
+        <v>52130</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D125" s="5">
+        <v>52130</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G125" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="5">
+        <v>52151</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D126" s="5">
+        <v>52151</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="5">
+        <v>52151</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D127" s="5">
+        <v>52151</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="5">
+        <v>52151</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D128" s="5">
+        <v>52151</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="5">
+        <v>52151</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D129" s="5">
+        <v>52151</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="5">
+        <v>55218</v>
+      </c>
+      <c r="B130" s="5">
+        <v>2</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5">
+        <v>55218</v>
+      </c>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="5">
+        <v>55306</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="5">
+        <v>60768</v>
+      </c>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G131" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="5">
+        <v>55306</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" s="5">
+        <v>60768</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G132" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="5">
+        <v>55306</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" s="5">
+        <v>60768</v>
+      </c>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="5">
+        <v>55306</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" s="5">
+        <v>60768</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="5">
+        <v>55464</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D135" s="5">
+        <v>55464</v>
+      </c>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G135" s="17" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="5">
+        <v>55486</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5">
+        <v>55486</v>
+      </c>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G136" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="8">
-        <v>116</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D114" s="1">
-        <v>116</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="G114" s="1" t="s">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="5">
+        <v>55486</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5">
+        <v>55486</v>
+      </c>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G137" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="8">
-        <v>116</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D115" s="1">
-        <v>116</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G115" s="1" t="s">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="5">
+        <v>55518</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D138" s="5">
+        <v>55518</v>
+      </c>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="5">
+        <v>55518</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D139" s="5">
+        <v>55518</v>
+      </c>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="5">
+        <v>55518</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D140" s="5">
+        <v>55518</v>
+      </c>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="5">
+        <v>55518</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D141" s="5">
+        <v>55518</v>
+      </c>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="5">
+        <v>55518</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="5">
+        <v>55518</v>
+      </c>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="5">
+        <v>55518</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D143" s="5">
+        <v>55518</v>
+      </c>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="5">
+        <v>55524</v>
+      </c>
+      <c r="B144" s="5">
+        <v>5</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D144" s="5">
+        <v>55524</v>
+      </c>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G144" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="5">
+        <v>55524</v>
+      </c>
+      <c r="B145" s="5">
+        <v>5</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D145" s="5">
+        <v>55524</v>
+      </c>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G145" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="5">
+        <v>55524</v>
+      </c>
+      <c r="B146" s="5">
+        <v>6</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D146" s="5">
+        <v>55524</v>
+      </c>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G146" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="5">
+        <v>55524</v>
+      </c>
+      <c r="B147" s="5">
+        <v>6</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D147" s="5">
+        <v>55524</v>
+      </c>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G147" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="5">
+        <v>55641</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148" s="5">
+        <v>64020</v>
+      </c>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G148" s="17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="5">
+        <v>55641</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D149" s="5">
+        <v>64020</v>
+      </c>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G149" s="17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="5">
+        <v>55641</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150" s="5">
+        <v>64020</v>
+      </c>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G150" s="17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="5">
+        <v>55641</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D151" s="5">
+        <v>64020</v>
+      </c>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G151" s="17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="5">
+        <v>55699</v>
+      </c>
+      <c r="B152" s="5">
+        <v>2</v>
+      </c>
+      <c r="C152" s="5">
+        <v>2</v>
+      </c>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="5">
+        <v>55708</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D153" s="5">
+        <v>55708</v>
+      </c>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G153" s="17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="5">
+        <v>56032</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C154" s="5">
+        <v>1</v>
+      </c>
+      <c r="D154" s="5">
+        <v>56032</v>
+      </c>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="5">
+        <v>56104</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5">
+        <v>56104</v>
+      </c>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="5">
+        <v>56480</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D156" s="5">
+        <v>56480</v>
+      </c>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G156" s="17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="5">
+        <v>56480</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D157" s="5">
+        <v>56480</v>
+      </c>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G157" s="17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="5">
+        <v>56963</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D158" s="5">
+        <v>56963</v>
+      </c>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G158" s="17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="5">
+        <v>56963</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D159" s="5">
+        <v>56963</v>
+      </c>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G159" s="17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="5">
+        <v>56963</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D160" s="5">
+        <v>56963</v>
+      </c>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G160" s="17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="5">
+        <v>56963</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D161" s="5">
+        <v>56963</v>
+      </c>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G161" s="17" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="5">
+        <v>57185</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="5">
+        <v>57185</v>
+      </c>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="5">
+        <v>57185</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="5">
+        <v>57185</v>
+      </c>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="5">
+        <v>57185</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="5">
+        <v>57185</v>
+      </c>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="5">
+        <v>57185</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D165" s="5">
+        <v>57185</v>
+      </c>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="5">
+        <v>57185</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166" s="5">
+        <v>57185</v>
+      </c>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="5">
+        <v>57185</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D167" s="5">
+        <v>57185</v>
+      </c>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="5">
+        <v>57842</v>
+      </c>
+      <c r="B168" s="5">
+        <v>1</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D168" s="5">
+        <v>57842</v>
+      </c>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5">
+        <v>1</v>
+      </c>
+      <c r="G168" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="8">
-        <v>116</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D116" s="1">
-        <v>116</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G116" s="1" t="s">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="5">
+        <v>58503</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D169" s="5">
+        <v>58503</v>
+      </c>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G169" s="17" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="5">
+        <v>58503</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D170" s="5">
+        <v>58503</v>
+      </c>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G170" s="17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="5">
+        <v>59073</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="5">
+        <v>59073</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="5">
+        <v>59073</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="5">
+        <v>59073</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="5">
+        <v>59073</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="5">
+        <v>59073</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="5">
+        <v>59773</v>
+      </c>
+      <c r="B177" s="5">
+        <v>1</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="5">
+        <v>59773</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="5">
+        <v>59773</v>
+      </c>
+      <c r="B178" s="5">
+        <v>1</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="5">
+        <v>59773</v>
+      </c>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="5">
+        <v>59773</v>
+      </c>
+      <c r="B179" s="5">
+        <v>2</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="5">
+        <v>59773</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="5">
+        <v>59773</v>
+      </c>
+      <c r="B180" s="5">
+        <v>2</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" s="5">
+        <v>59773</v>
+      </c>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G180" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="5">
+        <v>59882</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5">
+        <v>59882</v>
+      </c>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5">
+        <v>4</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="5">
+        <v>59882</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5">
+        <v>59882</v>
+      </c>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5">
+        <v>5</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="5">
+        <v>60345</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D183" s="5">
+        <v>60345</v>
+      </c>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G183" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="5">
+        <v>60345</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D184" s="5">
+        <v>60345</v>
+      </c>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G184" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="5">
+        <v>60345</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D185" s="5">
+        <v>60345</v>
+      </c>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G185" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="5">
+        <v>60345</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D186" s="5">
+        <v>60345</v>
+      </c>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G186" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="5">
+        <v>60345</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D187" s="5">
+        <v>60345</v>
+      </c>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G187" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="5">
+        <v>60345</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D188" s="5">
+        <v>60345</v>
+      </c>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G188" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="5">
+        <v>60589</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5">
+        <v>60589</v>
+      </c>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="5">
+        <v>60589</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5">
+        <v>60589</v>
+      </c>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="5">
+        <v>60926</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D191" s="5">
+        <v>60926</v>
+      </c>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G191" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="8">
-        <v>116</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D117" s="1">
-        <v>116</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G117" s="1" t="s">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="5">
+        <v>60926</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D192" s="5">
+        <v>60926</v>
+      </c>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G192" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="8">
-        <v>676</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D118" s="1">
-        <v>676</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="G118" s="1" t="s">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="5">
+        <v>60926</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D193" s="5">
+        <v>60926</v>
+      </c>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="5">
+        <v>60926</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D194" s="5">
+        <v>60926</v>
+      </c>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="5">
+        <v>60927</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D195" s="5">
+        <v>60927</v>
+      </c>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="5">
+        <v>60927</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D196" s="5">
+        <v>60927</v>
+      </c>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="5">
+        <v>60927</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D197" s="5">
+        <v>60927</v>
+      </c>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="5">
+        <v>60927</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D198" s="5">
+        <v>60927</v>
+      </c>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="5">
+        <v>61028</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D199" s="5">
+        <v>61028</v>
+      </c>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G199" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="5">
+        <v>61028</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D200" s="5">
+        <v>61028</v>
+      </c>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G200" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="5">
+        <v>61028</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D201" s="5">
+        <v>61028</v>
+      </c>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G201" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="5">
+        <v>61028</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D202" s="5">
+        <v>61028</v>
+      </c>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G202" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="5">
+        <v>61035</v>
+      </c>
+      <c r="B203" s="5">
+        <v>1</v>
+      </c>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5">
+        <v>61035</v>
+      </c>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G203" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="8">
-        <v>60926</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D119" s="1">
-        <v>60926</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G119" s="1" t="s">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="5">
+        <v>61241</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D204" s="5">
+        <v>61241</v>
+      </c>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G204" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="8">
-        <v>60926</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D120" s="1">
-        <v>60926</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G120" s="1" t="s">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="5">
+        <v>61241</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D205" s="5">
+        <v>61241</v>
+      </c>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G205" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="8">
-        <v>60927</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D121" s="1">
-        <v>60927</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G121" s="1" t="s">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="5">
+        <v>61242</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D206" s="5">
+        <v>61242</v>
+      </c>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G206" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="8">
-        <v>60927</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D122" s="1">
-        <v>60927</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G122" s="1" t="s">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="5">
+        <v>61242</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D207" s="5">
+        <v>61242</v>
+      </c>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G207" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="8">
-        <v>55486</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D123" s="1">
-        <v>55486</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="8">
-        <v>55486</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D124" s="1">
-        <v>55486</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="8">
-        <v>1599</v>
-      </c>
-      <c r="B125" s="1">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="5">
+        <v>1571</v>
+      </c>
+      <c r="B208" s="5">
+        <v>1</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" s="5">
+        <v>65285</v>
+      </c>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="5">
+        <v>1571</v>
+      </c>
+      <c r="B209" s="5">
+        <v>2</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D209" s="5">
+        <v>65285</v>
+      </c>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="5">
+        <v>1571</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D210" s="5">
+        <v>61890</v>
+      </c>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="5">
+        <v>1572</v>
+      </c>
+      <c r="B211" s="5">
+        <v>2</v>
+      </c>
+      <c r="C211" s="5">
+        <v>2</v>
+      </c>
+      <c r="D211" s="5">
+        <v>65284</v>
+      </c>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5">
+        <v>2</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="5">
+        <v>1572</v>
+      </c>
+      <c r="B212" s="5">
         <v>3</v>
       </c>
-      <c r="D125" s="1">
-        <v>1599</v>
-      </c>
-      <c r="F125" s="8">
+      <c r="C212" s="5">
         <v>3</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="8">
-        <v>59882</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D126" s="1">
-        <v>59882</v>
-      </c>
-      <c r="F126" s="8">
-        <v>4</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="8">
-        <v>59882</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D127" s="1">
-        <v>59882</v>
-      </c>
-      <c r="F127" s="8">
-        <v>5</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="8">
-        <v>56104</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D128" s="1">
-        <v>56104</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="8">
-        <v>55218</v>
-      </c>
-      <c r="B129" s="1">
-        <v>2</v>
-      </c>
-      <c r="D129" s="1">
-        <v>55218</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="8">
-        <v>2706</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D130" s="1">
-        <v>2706</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="8">
-        <v>2706</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D131" s="1">
-        <v>2706</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="8">
-        <v>7277</v>
-      </c>
-      <c r="B132" s="1">
-        <v>17</v>
-      </c>
-      <c r="D132" s="1">
-        <v>7277</v>
-      </c>
-      <c r="F132" s="8">
-        <v>17</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="8">
-        <v>57185</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D133" s="1">
-        <v>57185</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="8">
-        <v>57185</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D134" s="1">
-        <v>57185</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="8">
-        <v>57185</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D135" s="1">
-        <v>57185</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="8">
-        <v>60589</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D136" s="1">
-        <v>60589</v>
-      </c>
-      <c r="F136" s="8" t="s">
+      <c r="D212" s="5">
+        <v>65284</v>
+      </c>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5">
+        <v>3</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="5">
+        <v>7063</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C213" s="5">
+        <v>1</v>
+      </c>
+      <c r="D213" s="5">
+        <v>7063</v>
+      </c>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5">
+        <v>1</v>
+      </c>
+      <c r="G213" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="5">
+        <v>55308</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5">
+        <v>55308</v>
+      </c>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G136" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="8">
-        <v>60589</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D137" s="1">
-        <v>60589</v>
-      </c>
-      <c r="F137" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="8">
-        <v>61035</v>
-      </c>
-      <c r="B138" s="1">
-        <v>1</v>
-      </c>
-      <c r="D138" s="1">
-        <v>61035</v>
-      </c>
-      <c r="F138" s="8" t="s">
+      <c r="G214" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="5">
+        <v>55308</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5">
+        <v>55308</v>
+      </c>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G138" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="8">
-        <v>61028</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="1">
-        <v>61028</v>
-      </c>
-      <c r="F139" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="8">
-        <v>61028</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" s="1">
-        <v>61028</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="8">
-        <v>61241</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="1">
-        <v>61241</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="8">
-        <v>61241</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" s="1">
-        <v>61241</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="8">
-        <v>61242</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="1">
-        <v>61242</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="8">
-        <v>61242</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D144" s="1">
-        <v>61242</v>
-      </c>
-      <c r="F144" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="8">
-        <v>55641</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D145" s="1">
-        <v>55641</v>
-      </c>
-      <c r="F145" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="8">
-        <v>55641</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D146" s="1">
-        <v>55641</v>
-      </c>
-      <c r="F146" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>568</v>
-      </c>
-      <c r="B147" t="s">
-        <v>334</v>
-      </c>
-      <c r="D147">
-        <v>568</v>
-      </c>
-      <c r="F147">
-        <v>501</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>568</v>
-      </c>
-      <c r="B148" t="s">
-        <v>334</v>
-      </c>
-      <c r="D148">
-        <v>568</v>
-      </c>
-      <c r="F148">
-        <v>502</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>335</v>
-      </c>
+      <c r="G215" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216"/>
+      <c r="B216"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217"/>
+      <c r="B217"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218"/>
+      <c r="B218"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219"/>
+      <c r="B219"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220"/>
+      <c r="B220"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221"/>
+      <c r="B221"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222"/>
+      <c r="B222"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223"/>
+      <c r="B223"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224"/>
+      <c r="B224"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225"/>
+      <c r="B225"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226"/>
+      <c r="B226"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227"/>
+      <c r="B227"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228"/>
+      <c r="B228"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229"/>
+      <c r="B229"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230"/>
+      <c r="B230"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231"/>
+      <c r="B231"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232"/>
+      <c r="B232"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233"/>
+      <c r="B233"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234"/>
+      <c r="B234"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235"/>
+      <c r="B235"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236"/>
+      <c r="B236"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237"/>
+      <c r="B237"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238"/>
+      <c r="B238"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239"/>
+      <c r="B239"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240"/>
+      <c r="B240"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241"/>
+      <c r="B241"/>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242"/>
+      <c r="B242"/>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243"/>
+      <c r="B243"/>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244"/>
+      <c r="B244"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245"/>
+      <c r="B245"/>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246"/>
+      <c r="B246"/>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247"/>
+      <c r="B247"/>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248"/>
+      <c r="B248"/>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249"/>
+      <c r="B249"/>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250"/>
+      <c r="B250"/>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251"/>
+      <c r="B251"/>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252"/>
+      <c r="B252"/>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253"/>
+      <c r="B253"/>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254"/>
+      <c r="B254"/>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255"/>
+      <c r="B255"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256"/>
+      <c r="B256"/>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257"/>
+      <c r="B257"/>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258"/>
+      <c r="B258"/>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259"/>
+      <c r="B259"/>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260"/>
+      <c r="B260"/>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261"/>
+      <c r="B261"/>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262"/>
+      <c r="B262"/>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263"/>
+      <c r="B263"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264"/>
+      <c r="B264"/>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265"/>
+      <c r="B265"/>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266"/>
+      <c r="B266"/>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267"/>
+      <c r="B267"/>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268"/>
+      <c r="B268"/>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269"/>
+      <c r="B269"/>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270"/>
+      <c r="B270"/>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271"/>
+      <c r="B271"/>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272"/>
+      <c r="B272"/>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273"/>
+      <c r="B273"/>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274"/>
+      <c r="B274"/>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275"/>
+      <c r="B275"/>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276"/>
+      <c r="B276"/>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277"/>
+      <c r="B277"/>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278"/>
+      <c r="B278"/>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279"/>
+      <c r="B279"/>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280"/>
+      <c r="B280"/>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281"/>
+      <c r="B281"/>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282"/>
+      <c r="B282"/>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283"/>
+      <c r="B283"/>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284"/>
+      <c r="B284"/>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285"/>
+      <c r="B285"/>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286"/>
+      <c r="B286"/>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287"/>
+      <c r="B287"/>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288"/>
+      <c r="B288"/>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289"/>
+      <c r="B289"/>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290"/>
+      <c r="B290"/>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291"/>
+      <c r="B291"/>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292"/>
+      <c r="B292"/>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293"/>
+      <c r="B293"/>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294"/>
+      <c r="B294"/>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295"/>
+      <c r="B295"/>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296"/>
+      <c r="B296"/>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297"/>
+      <c r="B297"/>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298"/>
+      <c r="B298"/>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299"/>
+      <c r="B299"/>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300"/>
+      <c r="B300"/>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301"/>
+      <c r="B301"/>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302"/>
+      <c r="B302"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{AA9693D4-94E9-4250-828A-FAABB27742CD}"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4902,17 +6945,17 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4935,8 +6978,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
         <v>478</v>
       </c>
       <c r="B2" s="1">
@@ -4946,8 +6989,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
         <v>478</v>
       </c>
       <c r="B3" s="1">
@@ -4957,8 +7000,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
         <v>478</v>
       </c>
       <c r="B4" s="1">
@@ -4968,7 +7011,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>1594</v>
       </c>
@@ -4985,7 +7028,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>1594</v>
       </c>
@@ -5002,7 +7045,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>1594</v>
       </c>
@@ -5019,7 +7062,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>1594</v>
       </c>
@@ -5036,7 +7079,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1594</v>
       </c>
@@ -5053,7 +7096,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>1594</v>
       </c>
@@ -5070,7 +7113,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>1594</v>
       </c>
@@ -5087,8 +7130,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
         <v>1594</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -5104,8 +7147,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
         <v>2440</v>
       </c>
       <c r="B13" s="1">
@@ -5115,7 +7158,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>2504</v>
       </c>
@@ -5132,7 +7175,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>2504</v>
       </c>
@@ -5149,7 +7192,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>2504</v>
       </c>
@@ -5166,7 +7209,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>2549</v>
       </c>
@@ -5183,7 +7226,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>2549</v>
       </c>
@@ -5200,7 +7243,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>10071</v>
       </c>
@@ -5208,7 +7251,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>10111</v>
       </c>
@@ -5216,7 +7259,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>10381</v>
       </c>
@@ -5224,7 +7267,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>10675</v>
       </c>
@@ -5241,7 +7284,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>10675</v>
       </c>
@@ -5258,8 +7301,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
         <v>10788</v>
       </c>
       <c r="B24" s="1">
@@ -5269,8 +7312,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
         <v>50044</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -5280,8 +7323,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="17">
         <v>50151</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -5291,8 +7334,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
         <v>50151</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -5302,7 +7345,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>50202</v>
       </c>
@@ -5310,7 +7353,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>50247</v>
       </c>
@@ -5318,8 +7361,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="17">
         <v>50607</v>
       </c>
       <c r="B30" s="1">
@@ -5329,8 +7372,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="17">
         <v>50607</v>
       </c>
       <c r="B31" s="1">
@@ -5340,8 +7383,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="17">
         <v>50607</v>
       </c>
       <c r="B32" s="1">
@@ -5351,8 +7394,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="17">
         <v>50607</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -5362,8 +7405,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="17">
         <v>50607</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -5373,7 +7416,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>54035</v>
       </c>
@@ -5381,8 +7424,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="17">
         <v>54571</v>
       </c>
       <c r="B36" s="1">
@@ -5392,8 +7435,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="17">
         <v>54571</v>
       </c>
       <c r="B37" s="1">
@@ -5403,7 +7446,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>54755</v>
       </c>
@@ -5411,8 +7454,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="17">
         <v>55098</v>
       </c>
       <c r="B39" s="1">
@@ -5422,8 +7465,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="17">
         <v>55098</v>
       </c>
       <c r="B40" s="1">
@@ -5433,7 +7476,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>55422</v>
       </c>
@@ -5441,8 +7484,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="17">
         <v>55703</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -5452,7 +7495,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>880004</v>
       </c>
@@ -5463,7 +7506,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>880004</v>
       </c>
@@ -5474,7 +7517,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>880004</v>
       </c>
@@ -5485,7 +7528,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>880004</v>
       </c>
@@ -5496,7 +7539,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>880004</v>
       </c>
@@ -5510,7 +7553,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>880004</v>
       </c>
@@ -5524,7 +7567,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>880004</v>
       </c>
@@ -5535,7 +7578,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>880006</v>
       </c>
@@ -5546,7 +7589,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>880006</v>
       </c>
@@ -5557,7 +7600,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>880006</v>
       </c>
@@ -5568,7 +7611,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>880006</v>
       </c>
@@ -5579,7 +7622,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>880007</v>
       </c>
@@ -5590,7 +7633,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>880016</v>
       </c>
@@ -5601,7 +7644,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>880016</v>
       </c>
@@ -5612,7 +7655,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>880016</v>
       </c>
@@ -5623,7 +7666,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>880023</v>
       </c>
@@ -5634,7 +7677,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>880023</v>
       </c>
@@ -5645,7 +7688,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>880023</v>
       </c>
@@ -5656,7 +7699,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>880023</v>
       </c>
@@ -5667,7 +7710,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>880024</v>
       </c>
@@ -5678,7 +7721,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>880025</v>
       </c>
@@ -5689,7 +7732,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>880025</v>
       </c>
@@ -5700,7 +7743,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>880025</v>
       </c>
@@ -5711,7 +7754,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>880025</v>
       </c>
@@ -5722,7 +7765,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>880028</v>
       </c>
@@ -5733,7 +7776,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>880029</v>
       </c>
@@ -5744,7 +7787,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>880030</v>
       </c>
@@ -5755,7 +7798,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>880030</v>
       </c>
@@ -5766,7 +7809,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>880031</v>
       </c>
@@ -5777,7 +7820,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>880031</v>
       </c>
@@ -5788,7 +7831,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>880033</v>
       </c>
@@ -5799,7 +7842,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>880038</v>
       </c>
@@ -5810,7 +7853,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>880039</v>
       </c>
@@ -5821,7 +7864,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>880039</v>
       </c>
@@ -5832,7 +7875,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>880041</v>
       </c>
@@ -5843,7 +7886,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>880041</v>
       </c>
@@ -5854,7 +7897,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>880041</v>
       </c>
@@ -5865,7 +7908,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>880042</v>
       </c>
@@ -5876,7 +7919,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>880042</v>
       </c>
@@ -5887,7 +7930,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>880042</v>
       </c>
@@ -5898,7 +7941,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>880042</v>
       </c>
@@ -5909,7 +7952,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>880043</v>
       </c>
@@ -5920,7 +7963,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>880044</v>
       </c>
@@ -5931,7 +7974,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>880045</v>
       </c>
@@ -5942,7 +7985,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>880045</v>
       </c>
@@ -5953,7 +7996,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>880045</v>
       </c>
@@ -5964,7 +8007,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>880049</v>
       </c>
@@ -5975,7 +8018,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>880050</v>
       </c>
@@ -5986,7 +8029,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>880052</v>
       </c>
@@ -5997,7 +8040,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>880053</v>
       </c>
@@ -6008,7 +8051,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>880053</v>
       </c>
@@ -6019,7 +8062,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>880053</v>
       </c>
@@ -6030,7 +8073,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>880053</v>
       </c>
@@ -6041,7 +8084,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>880053</v>
       </c>
@@ -6052,7 +8095,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>880055</v>
       </c>
@@ -6063,7 +8106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>880055</v>
       </c>
@@ -6074,7 +8117,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>880055</v>
       </c>
@@ -6085,7 +8128,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>880057</v>
       </c>
@@ -6096,7 +8139,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>880057</v>
       </c>
@@ -6107,7 +8150,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>880065</v>
       </c>
@@ -6118,7 +8161,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>880065</v>
       </c>
@@ -6129,7 +8172,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>880067</v>
       </c>
@@ -6140,7 +8183,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>880067</v>
       </c>
@@ -6151,7 +8194,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>880067</v>
       </c>
@@ -6162,7 +8205,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>880067</v>
       </c>
@@ -6173,7 +8216,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>880071</v>
       </c>
@@ -6184,7 +8227,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>880072</v>
       </c>
@@ -6195,7 +8238,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>880074</v>
       </c>
@@ -6206,7 +8249,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>880075</v>
       </c>
@@ -6217,7 +8260,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>880075</v>
       </c>
@@ -6228,7 +8271,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>880076</v>
       </c>
@@ -6239,7 +8282,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>880076</v>
       </c>
@@ -6250,7 +8293,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>880076</v>
       </c>
@@ -6261,7 +8304,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>880078</v>
       </c>
@@ -6272,7 +8315,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>880079</v>
       </c>
@@ -6283,7 +8326,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>880079</v>
       </c>
@@ -6294,7 +8337,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>880079</v>
       </c>
@@ -6308,7 +8351,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>880079</v>
       </c>
@@ -6322,7 +8365,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>880083</v>
       </c>
@@ -6333,7 +8376,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>880086</v>
       </c>
@@ -6344,7 +8387,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>880086</v>
       </c>
@@ -6355,7 +8398,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>880086</v>
       </c>
@@ -6366,7 +8409,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>880087</v>
       </c>
@@ -6377,7 +8420,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>880088</v>
       </c>
@@ -6388,7 +8431,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>880088</v>
       </c>
@@ -6399,7 +8442,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>880088</v>
       </c>
@@ -6410,7 +8453,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>880089</v>
       </c>
@@ -6421,7 +8464,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>880092</v>
       </c>
@@ -6432,7 +8475,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>880092</v>
       </c>
@@ -6443,7 +8486,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>880093</v>
       </c>
@@ -6454,7 +8497,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>880093</v>
       </c>
@@ -6465,7 +8508,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>880096</v>
       </c>
@@ -6476,7 +8519,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>880100</v>
       </c>
@@ -6487,7 +8530,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>880100</v>
       </c>
@@ -6498,7 +8541,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>880100</v>
       </c>
@@ -6509,7 +8552,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>880100</v>
       </c>
@@ -6520,7 +8563,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>880101</v>
       </c>
@@ -6531,7 +8574,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>880102</v>
       </c>
@@ -6545,7 +8588,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>880102</v>
       </c>
@@ -6559,7 +8602,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>880107</v>
       </c>
@@ -6570,7 +8613,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>880107</v>
       </c>
@@ -6581,7 +8624,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>880107</v>
       </c>
@@ -6592,7 +8635,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>880107</v>
       </c>
@@ -6603,7 +8646,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>880108</v>
       </c>
@@ -6614,7 +8657,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>880108</v>
       </c>
@@ -6639,355 +8682,358 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF944944-0844-4FB8-99F2-9DEC0D345698}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
         <v>330</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="9">
         <v>57901</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>562</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <v>57068</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>762</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>7546</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>1416</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>56565</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>2709</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>58215</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <v>2713</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>58697</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>4076</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>7799</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <v>7254</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <v>7294</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>7258</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>7268</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>7762</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>55545</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>7765</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <v>7709</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>10474</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="9">
         <v>10397</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>10474</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="9">
         <v>54995</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="11" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <v>10619</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="9">
         <v>7784</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <v>50030</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="9">
         <v>1393</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
         <v>55120</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="9">
         <v>10789</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
         <v>55248</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="9">
         <v>2847</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="11" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
         <v>55306</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="9">
         <v>59338</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="11" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
         <v>55306</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="9">
         <v>59784</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="11" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
         <v>55375</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="9">
         <v>57664</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="11" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
         <v>55481</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="9">
         <v>58557</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="11" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
         <v>55508</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="9">
         <v>55874</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="11" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
         <v>70454</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="9">
         <v>54538</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="11" t="s">
         <v>259</v>
       </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{23DBA6EA-2935-43AA-81F4-2A228D9D9EA2}"/>
@@ -6999,45 +9045,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD10B953-F711-4F6E-8A1B-58F0D1356472}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:2" ht="160" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:2" ht="192" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:2" ht="288" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>270</v>
       </c>
     </row>
